--- a/data/pca/factorExposure/factorExposure_2018-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005847955466943939</v>
+        <v>-0.01225926824555575</v>
       </c>
       <c r="C2">
-        <v>-0.02122882363925846</v>
+        <v>0.03012249311663149</v>
       </c>
       <c r="D2">
-        <v>0.01949625454118132</v>
+        <v>0.02177048634482396</v>
       </c>
       <c r="E2">
-        <v>0.01811869696051347</v>
+        <v>0.01520948307310979</v>
       </c>
       <c r="F2">
-        <v>0.0781429292093458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01271843994689802</v>
+      </c>
+      <c r="G2">
+        <v>-0.01148931322025892</v>
+      </c>
+      <c r="H2">
+        <v>-0.04130634756683567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09249530138534057</v>
+        <v>-0.05407106902011248</v>
       </c>
       <c r="C3">
-        <v>-0.03942912296837068</v>
+        <v>0.08178177083374018</v>
       </c>
       <c r="D3">
-        <v>-0.00638384967495897</v>
+        <v>-0.000351904865594893</v>
       </c>
       <c r="E3">
-        <v>0.09373814328164361</v>
+        <v>0.05754132718987864</v>
       </c>
       <c r="F3">
-        <v>0.2992945361732925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.04583247186638493</v>
+      </c>
+      <c r="G3">
+        <v>-0.01962754928876998</v>
+      </c>
+      <c r="H3">
+        <v>-0.1165250187498599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03988794306871034</v>
+        <v>-0.02919295150884835</v>
       </c>
       <c r="C4">
-        <v>-0.001125539915473156</v>
+        <v>0.06768223529357444</v>
       </c>
       <c r="D4">
-        <v>0.02681304260546052</v>
+        <v>0.01345473819036314</v>
       </c>
       <c r="E4">
-        <v>-0.02680909541103528</v>
+        <v>-0.01028585036171755</v>
       </c>
       <c r="F4">
-        <v>0.0658134493042128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02434283159575692</v>
+      </c>
+      <c r="G4">
+        <v>-0.04650925756042796</v>
+      </c>
+      <c r="H4">
+        <v>-0.051682649920018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03563192246799503</v>
+        <v>-0.01569879523300778</v>
       </c>
       <c r="C6">
-        <v>-0.01108330591836885</v>
+        <v>0.06477829208447046</v>
       </c>
       <c r="D6">
-        <v>0.04051438768404195</v>
+        <v>0.008018168611418073</v>
       </c>
       <c r="E6">
-        <v>-0.02769830670960387</v>
+        <v>-0.01600208463514885</v>
       </c>
       <c r="F6">
-        <v>0.03219899760402914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0003431763424857224</v>
+      </c>
+      <c r="G6">
+        <v>-0.03111854218968229</v>
+      </c>
+      <c r="H6">
+        <v>-0.04769399032432711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03989172951240027</v>
+        <v>-0.003688923192956545</v>
       </c>
       <c r="C7">
-        <v>0.03446812352304295</v>
+        <v>0.03873327952924447</v>
       </c>
       <c r="D7">
-        <v>0.01679470333167989</v>
+        <v>0.008161484434554387</v>
       </c>
       <c r="E7">
-        <v>-0.007940653734357055</v>
+        <v>-0.0223025854894684</v>
       </c>
       <c r="F7">
-        <v>0.03271134661363404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04404817919475054</v>
+      </c>
+      <c r="G7">
+        <v>0.001310448083735604</v>
+      </c>
+      <c r="H7">
+        <v>-0.02386887996677909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01038153951363804</v>
+        <v>0.004556622566574882</v>
       </c>
       <c r="C8">
-        <v>0.008747277867179873</v>
+        <v>0.005780780979543007</v>
       </c>
       <c r="D8">
-        <v>0.02963682984600237</v>
+        <v>0.001192715717295454</v>
       </c>
       <c r="E8">
-        <v>-0.02034840819103046</v>
+        <v>-0.0007283985182295496</v>
       </c>
       <c r="F8">
-        <v>0.0642857640544431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02118688909992978</v>
+      </c>
+      <c r="G8">
+        <v>-0.01640080081921233</v>
+      </c>
+      <c r="H8">
+        <v>-0.02409646241284951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03299273470781928</v>
+        <v>-0.01636181375466014</v>
       </c>
       <c r="C9">
-        <v>0.0009225833648545281</v>
+        <v>0.04976052193646756</v>
       </c>
       <c r="D9">
-        <v>0.02368416036021731</v>
+        <v>0.008864078602600379</v>
       </c>
       <c r="E9">
-        <v>0.003177586825210907</v>
+        <v>-0.007955111771198039</v>
       </c>
       <c r="F9">
-        <v>0.06983051515968457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01707246810961394</v>
+      </c>
+      <c r="G9">
+        <v>-0.01635587525745595</v>
+      </c>
+      <c r="H9">
+        <v>-0.04892244845231813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04701620704773778</v>
+        <v>-0.145905243737309</v>
       </c>
       <c r="C10">
-        <v>-0.01720434859593244</v>
+        <v>-0.1355080218306097</v>
       </c>
       <c r="D10">
-        <v>-0.1418092143729099</v>
+        <v>-0.01477647958868346</v>
       </c>
       <c r="E10">
-        <v>0.07683533372063803</v>
+        <v>0.03053557212440552</v>
       </c>
       <c r="F10">
-        <v>0.02612917227237095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.02155530568341606</v>
+      </c>
+      <c r="G10">
+        <v>0.0270320053649768</v>
+      </c>
+      <c r="H10">
+        <v>0.005838959355989414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02597489335469634</v>
+        <v>-0.01120284665445071</v>
       </c>
       <c r="C11">
-        <v>-0.01398799588631784</v>
+        <v>0.04942535861099521</v>
       </c>
       <c r="D11">
-        <v>0.03709822255691812</v>
+        <v>-0.00440953614180651</v>
       </c>
       <c r="E11">
-        <v>-0.02270541739182897</v>
+        <v>-0.010960080371811</v>
       </c>
       <c r="F11">
-        <v>0.02586815331168384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002957534521527325</v>
+      </c>
+      <c r="G11">
+        <v>-0.01445268125041914</v>
+      </c>
+      <c r="H11">
+        <v>-0.04586381367925881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03860267802435657</v>
+        <v>-0.01636877739530812</v>
       </c>
       <c r="C12">
-        <v>-0.01360253966067107</v>
+        <v>0.04811050773342686</v>
       </c>
       <c r="D12">
-        <v>0.03293591739874501</v>
+        <v>-0.0006862935079792308</v>
       </c>
       <c r="E12">
-        <v>-0.03490868157085334</v>
+        <v>-0.02055891120650003</v>
       </c>
       <c r="F12">
-        <v>0.002009757727713608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.004830745790149121</v>
+      </c>
+      <c r="G12">
+        <v>-0.009219598269252085</v>
+      </c>
+      <c r="H12">
+        <v>-0.01890700413208955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007441777106995003</v>
+        <v>-0.01289161709121382</v>
       </c>
       <c r="C13">
-        <v>-0.01624065051274505</v>
+        <v>0.02801585135833532</v>
       </c>
       <c r="D13">
-        <v>0.004338071440356223</v>
+        <v>0.01862966863904658</v>
       </c>
       <c r="E13">
-        <v>0.005678322890067982</v>
+        <v>0.01385405008146613</v>
       </c>
       <c r="F13">
-        <v>0.06699557329668084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0003917863499359786</v>
+      </c>
+      <c r="G13">
+        <v>-0.03054936185250189</v>
+      </c>
+      <c r="H13">
+        <v>-0.06060403002755425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02469565396531726</v>
+        <v>-0.006362415394068122</v>
       </c>
       <c r="C14">
-        <v>0.007557299774829188</v>
+        <v>0.02166459968024329</v>
       </c>
       <c r="D14">
-        <v>0.009784546397171268</v>
+        <v>0.00445705382305396</v>
       </c>
       <c r="E14">
-        <v>-0.009294990835996692</v>
+        <v>-0.01009718311223682</v>
       </c>
       <c r="F14">
-        <v>0.04784822379035086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02277727485911817</v>
+      </c>
+      <c r="G14">
+        <v>-0.01181027510699182</v>
+      </c>
+      <c r="H14">
+        <v>-0.01770689115006314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02740985706459822</v>
+        <v>-0.01338808373760641</v>
       </c>
       <c r="C16">
-        <v>-0.01352125801184272</v>
+        <v>0.04360034019782254</v>
       </c>
       <c r="D16">
-        <v>0.0419575552342759</v>
+        <v>-0.004456910008162152</v>
       </c>
       <c r="E16">
-        <v>-0.02273966803171528</v>
+        <v>-0.009989912698432486</v>
       </c>
       <c r="F16">
-        <v>0.03581527228913563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.002051975702630826</v>
+      </c>
+      <c r="G16">
+        <v>-0.01463793791132923</v>
+      </c>
+      <c r="H16">
+        <v>-0.0342431686692803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03413629429194936</v>
+        <v>-0.01403859248648296</v>
       </c>
       <c r="C19">
-        <v>-0.009052877770401266</v>
+        <v>0.04680625547776342</v>
       </c>
       <c r="D19">
-        <v>0.02848369666191481</v>
+        <v>0.007448035699721712</v>
       </c>
       <c r="E19">
-        <v>-0.03159255705646698</v>
+        <v>0.01403171915245267</v>
       </c>
       <c r="F19">
-        <v>0.08676277664156949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02799420833314678</v>
+      </c>
+      <c r="G19">
+        <v>-0.03669741182574149</v>
+      </c>
+      <c r="H19">
+        <v>-0.05489307134602135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.000185122670482084</v>
+        <v>-0.0006830612662592577</v>
       </c>
       <c r="C20">
-        <v>0.01246034521892093</v>
+        <v>0.0231277591556696</v>
       </c>
       <c r="D20">
-        <v>-0.004168559278338907</v>
+        <v>0.00875472338427743</v>
       </c>
       <c r="E20">
-        <v>-0.003085028398676568</v>
+        <v>0.006968749794423574</v>
       </c>
       <c r="F20">
-        <v>0.04908701467764731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01925494248911527</v>
+      </c>
+      <c r="G20">
+        <v>-0.02166117008949105</v>
+      </c>
+      <c r="H20">
+        <v>-0.0291669268927798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02767405882252027</v>
+        <v>-0.005716376474453491</v>
       </c>
       <c r="C21">
-        <v>0.009347123679749793</v>
+        <v>0.02364672526670262</v>
       </c>
       <c r="D21">
-        <v>0.02221699746388841</v>
+        <v>0.0111449531572079</v>
       </c>
       <c r="E21">
-        <v>-0.005104736359007265</v>
+        <v>0.006845891531318619</v>
       </c>
       <c r="F21">
-        <v>0.0297224792166937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02790132934015113</v>
+      </c>
+      <c r="G21">
+        <v>-0.005686571396644124</v>
+      </c>
+      <c r="H21">
+        <v>-0.03450036045080145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02256412757280929</v>
+        <v>-0.00726268188018423</v>
       </c>
       <c r="C24">
-        <v>-0.01171981467515442</v>
+        <v>0.04176905481979814</v>
       </c>
       <c r="D24">
-        <v>0.0278804384232463</v>
+        <v>0.0009820054277255631</v>
       </c>
       <c r="E24">
-        <v>-0.02277672311956769</v>
+        <v>-0.01458586593168047</v>
       </c>
       <c r="F24">
-        <v>0.02267457110847252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.003016595416401954</v>
+      </c>
+      <c r="G24">
+        <v>-0.01142190131118002</v>
+      </c>
+      <c r="H24">
+        <v>-0.03766796464213153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0325200517766073</v>
+        <v>-0.02203653761779369</v>
       </c>
       <c r="C25">
-        <v>-0.01298270540683493</v>
+        <v>0.05179686436624976</v>
       </c>
       <c r="D25">
-        <v>0.03138539481794371</v>
+        <v>0.003225458847755436</v>
       </c>
       <c r="E25">
-        <v>-0.01706132864177345</v>
+        <v>-0.01886425346395531</v>
       </c>
       <c r="F25">
-        <v>0.03338292646612488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.003169611381809904</v>
+      </c>
+      <c r="G25">
+        <v>-0.01853022416559748</v>
+      </c>
+      <c r="H25">
+        <v>-0.03582990885428096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01209748022666854</v>
+        <v>-0.004657708136204015</v>
       </c>
       <c r="C26">
-        <v>-0.0003575835209137957</v>
+        <v>0.008123747992364566</v>
       </c>
       <c r="D26">
-        <v>0.01315638905214385</v>
+        <v>0.02195168044386266</v>
       </c>
       <c r="E26">
-        <v>0.01752587620764144</v>
+        <v>-0.002889694134572968</v>
       </c>
       <c r="F26">
-        <v>0.04751276818323353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01028928514560931</v>
+      </c>
+      <c r="G26">
+        <v>-0.0005913788138959119</v>
+      </c>
+      <c r="H26">
+        <v>-0.01605897591336623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01988478268330363</v>
+        <v>-0.005603515290394545</v>
       </c>
       <c r="C27">
-        <v>-0.0001863037402617298</v>
+        <v>0.006112741153792053</v>
       </c>
       <c r="D27">
-        <v>-0.003331192943962122</v>
+        <v>-0.001938016873721369</v>
       </c>
       <c r="E27">
-        <v>-0.02847544387258998</v>
+        <v>-0.002890896504054887</v>
       </c>
       <c r="F27">
-        <v>0.01839637665829041</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01142305876177832</v>
+      </c>
+      <c r="G27">
+        <v>-0.008478169430626932</v>
+      </c>
+      <c r="H27">
+        <v>0.006138927132212789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08948040046827556</v>
+        <v>-0.1978044998283524</v>
       </c>
       <c r="C28">
-        <v>-0.02922579620122012</v>
+        <v>-0.1715454886306417</v>
       </c>
       <c r="D28">
-        <v>-0.2058264934790136</v>
+        <v>-0.006844839358551745</v>
       </c>
       <c r="E28">
-        <v>0.1116221698316354</v>
+        <v>0.02239878003131841</v>
       </c>
       <c r="F28">
-        <v>0.009727447913172886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03330247577690469</v>
+      </c>
+      <c r="G28">
+        <v>0.03043481322741618</v>
+      </c>
+      <c r="H28">
+        <v>0.004409412443552933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02680880162842527</v>
+        <v>-0.01080079617276406</v>
       </c>
       <c r="C29">
-        <v>0.00361936400498731</v>
+        <v>0.02053907891495217</v>
       </c>
       <c r="D29">
-        <v>0.008522899994734578</v>
+        <v>0.003511991421358741</v>
       </c>
       <c r="E29">
-        <v>-0.01159745347179504</v>
+        <v>-0.00829914343279093</v>
       </c>
       <c r="F29">
-        <v>0.04443116132233394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0223187699263693</v>
+      </c>
+      <c r="G29">
+        <v>-0.01044291378218239</v>
+      </c>
+      <c r="H29">
+        <v>-0.00751616916672782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03070354640024876</v>
+        <v>-0.01772024585374727</v>
       </c>
       <c r="C30">
-        <v>-0.05558972223140478</v>
+        <v>0.08708557556858948</v>
       </c>
       <c r="D30">
-        <v>0.05124063837816468</v>
+        <v>0.01673163479781654</v>
       </c>
       <c r="E30">
-        <v>-0.01145703978816056</v>
+        <v>0.004876045946487524</v>
       </c>
       <c r="F30">
-        <v>0.08308709219722996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02284036806098268</v>
+      </c>
+      <c r="G30">
+        <v>-0.04267960221818551</v>
+      </c>
+      <c r="H30">
+        <v>-0.0679294657860235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04343443825776128</v>
+        <v>-0.03036642240576001</v>
       </c>
       <c r="C31">
-        <v>-0.01637124570428849</v>
+        <v>0.03378237269845764</v>
       </c>
       <c r="D31">
-        <v>0.02017472241571739</v>
+        <v>-0.002273489175505707</v>
       </c>
       <c r="E31">
-        <v>-0.02455424308242159</v>
+        <v>-0.01441622058057783</v>
       </c>
       <c r="F31">
-        <v>0.03890481094136684</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.009752189091696319</v>
+      </c>
+      <c r="G31">
+        <v>-0.001350980181002761</v>
+      </c>
+      <c r="H31">
+        <v>0.001164374215799452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02093457260424313</v>
+        <v>0.002774531711748295</v>
       </c>
       <c r="C32">
-        <v>0.02363773324038953</v>
+        <v>0.01290778654509012</v>
       </c>
       <c r="D32">
-        <v>0.04154841848890073</v>
+        <v>-0.008657205843328485</v>
       </c>
       <c r="E32">
-        <v>-0.03611126940011727</v>
+        <v>-0.0004886805863144902</v>
       </c>
       <c r="F32">
-        <v>0.05168893087007757</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04372299849495531</v>
+      </c>
+      <c r="G32">
+        <v>-0.0400086121992067</v>
+      </c>
+      <c r="H32">
+        <v>-0.03856481413465582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0269349811507989</v>
+        <v>-0.01427112774713553</v>
       </c>
       <c r="C33">
-        <v>-0.0312957128568058</v>
+        <v>0.04864775104338374</v>
       </c>
       <c r="D33">
-        <v>0.04411480926116237</v>
+        <v>0.007232783497212605</v>
       </c>
       <c r="E33">
-        <v>-0.001918285057754056</v>
+        <v>0.009245012396547802</v>
       </c>
       <c r="F33">
-        <v>0.06097240307844096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.005829006091422682</v>
+      </c>
+      <c r="G33">
+        <v>-0.002669844756251104</v>
+      </c>
+      <c r="H33">
+        <v>-0.04982272411639753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03025629144039703</v>
+        <v>-0.02203469484066627</v>
       </c>
       <c r="C34">
-        <v>-0.005647063865524604</v>
+        <v>0.05172604098892309</v>
       </c>
       <c r="D34">
-        <v>0.03984512617802552</v>
+        <v>-0.01307256028086755</v>
       </c>
       <c r="E34">
-        <v>-0.03307142613035882</v>
+        <v>-0.02612329938503442</v>
       </c>
       <c r="F34">
-        <v>0.02998399373171081</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005612125190753336</v>
+      </c>
+      <c r="G34">
+        <v>-0.0167817038611776</v>
+      </c>
+      <c r="H34">
+        <v>-0.0378109705516107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01851738478737081</v>
+        <v>-0.01136667606860517</v>
       </c>
       <c r="C36">
-        <v>0.005165694747439067</v>
+        <v>0.006672383516810381</v>
       </c>
       <c r="D36">
-        <v>0.0008974309755826842</v>
+        <v>0.008751114493527329</v>
       </c>
       <c r="E36">
-        <v>-0.003681036002493815</v>
+        <v>-0.003844126309609531</v>
       </c>
       <c r="F36">
-        <v>0.02824130560733464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01382766654135201</v>
+      </c>
+      <c r="G36">
+        <v>-0.0004418675009125582</v>
+      </c>
+      <c r="H36">
+        <v>-0.01079758884974941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01258972281021894</v>
+        <v>-0.02476835116829583</v>
       </c>
       <c r="C38">
-        <v>-0.008464396798064528</v>
+        <v>0.0212686772394353</v>
       </c>
       <c r="D38">
-        <v>0.000641439513801807</v>
+        <v>-0.01261067964895578</v>
       </c>
       <c r="E38">
-        <v>0.02741337181315256</v>
+        <v>-0.007404192420438929</v>
       </c>
       <c r="F38">
-        <v>0.04143675515736113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0008741133993540736</v>
+      </c>
+      <c r="G38">
+        <v>-0.009556157339589909</v>
+      </c>
+      <c r="H38">
+        <v>-0.03043691357110302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02010033154516668</v>
+        <v>0.00256984971308064</v>
       </c>
       <c r="C39">
-        <v>-0.008827507837225397</v>
+        <v>0.0863784654119141</v>
       </c>
       <c r="D39">
-        <v>0.05376879984971353</v>
+        <v>0.003046010315811004</v>
       </c>
       <c r="E39">
-        <v>-0.01877654803287779</v>
+        <v>-0.01238901367731957</v>
       </c>
       <c r="F39">
-        <v>0.05607194416889857</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008281487422289234</v>
+      </c>
+      <c r="G39">
+        <v>-0.02314832856796999</v>
+      </c>
+      <c r="H39">
+        <v>-0.07412562881979469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01390989830356475</v>
+        <v>-0.01924650124442309</v>
       </c>
       <c r="C40">
-        <v>-0.03786934881098952</v>
+        <v>0.02981594344640952</v>
       </c>
       <c r="D40">
-        <v>0.01842992444856369</v>
+        <v>0.005635809796721874</v>
       </c>
       <c r="E40">
-        <v>-0.02671680635682015</v>
+        <v>-0.000569622530733208</v>
       </c>
       <c r="F40">
-        <v>0.03317796583301375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02086629786180061</v>
+      </c>
+      <c r="G40">
+        <v>-0.02864658334400245</v>
+      </c>
+      <c r="H40">
+        <v>-0.04051778515046293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00890167610452999</v>
+        <v>-0.01145713762605551</v>
       </c>
       <c r="C41">
-        <v>-0.001036278283800862</v>
+        <v>-0.006660297601565847</v>
       </c>
       <c r="D41">
-        <v>0.002317367508160336</v>
+        <v>0.002747018309337713</v>
       </c>
       <c r="E41">
-        <v>0.01291909176015301</v>
+        <v>-0.003774781991385054</v>
       </c>
       <c r="F41">
-        <v>0.002017999622923383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003543396359485944</v>
+      </c>
+      <c r="G41">
+        <v>0.01138860026564548</v>
+      </c>
+      <c r="H41">
+        <v>0.004889124136110886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2185526280379993</v>
+        <v>-0.06503636348379677</v>
       </c>
       <c r="C42">
-        <v>-0.2334501395584364</v>
+        <v>0.2143362181844018</v>
       </c>
       <c r="D42">
-        <v>0.4282040443571182</v>
+        <v>0.1051630177424551</v>
       </c>
       <c r="E42">
-        <v>0.7101637350263633</v>
+        <v>0.1345841157829474</v>
       </c>
       <c r="F42">
-        <v>-0.3973053885571815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2443075135843599</v>
+      </c>
+      <c r="G42">
+        <v>0.914287713021335</v>
+      </c>
+      <c r="H42">
+        <v>-0.07420520374198165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.009742373577194732</v>
+        <v>-0.01260100690975181</v>
       </c>
       <c r="C43">
-        <v>-0.003459177789150191</v>
+        <v>-0.002817142622631822</v>
       </c>
       <c r="D43">
-        <v>0.006245967037046387</v>
+        <v>0.002984789684716081</v>
       </c>
       <c r="E43">
-        <v>0.001870656017530019</v>
+        <v>0.001711266662124526</v>
       </c>
       <c r="F43">
-        <v>0.02820204652492401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00387072737842625</v>
+      </c>
+      <c r="G43">
+        <v>0.00529937385060278</v>
+      </c>
+      <c r="H43">
+        <v>-0.003971348351552203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0218575032412504</v>
+        <v>-0.004035779718992548</v>
       </c>
       <c r="C44">
-        <v>0.012127468245478</v>
+        <v>0.04030768001994205</v>
       </c>
       <c r="D44">
-        <v>0.02424678011886834</v>
+        <v>0.001270761311103506</v>
       </c>
       <c r="E44">
-        <v>0.02247332356368862</v>
+        <v>0.005163248231829019</v>
       </c>
       <c r="F44">
-        <v>0.08486631876021199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02625941351208247</v>
+      </c>
+      <c r="G44">
+        <v>0.000116157313393615</v>
+      </c>
+      <c r="H44">
+        <v>-0.06190091043966272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0180943823111541</v>
+        <v>-0.003648489419121899</v>
       </c>
       <c r="C46">
-        <v>-0.003388970795531861</v>
+        <v>0.01447718975195511</v>
       </c>
       <c r="D46">
-        <v>0.0361347355982729</v>
+        <v>0.00890211787304681</v>
       </c>
       <c r="E46">
-        <v>-0.02114197419097464</v>
+        <v>-0.001245709491530167</v>
       </c>
       <c r="F46">
-        <v>0.07210511592925495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01187610943508565</v>
+      </c>
+      <c r="G46">
+        <v>-0.008364502321442041</v>
+      </c>
+      <c r="H46">
+        <v>-0.01142315296848717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0747231767150985</v>
+        <v>-0.05015300282692043</v>
       </c>
       <c r="C47">
-        <v>-0.03586387462711337</v>
+        <v>0.07022514669977298</v>
       </c>
       <c r="D47">
-        <v>0.01612603039801219</v>
+        <v>-0.01494009087531013</v>
       </c>
       <c r="E47">
-        <v>-0.03606598666510201</v>
+        <v>-0.01847657607384114</v>
       </c>
       <c r="F47">
-        <v>0.01055705692897715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.006283913589193983</v>
+      </c>
+      <c r="G47">
+        <v>-0.0007146439968836773</v>
+      </c>
+      <c r="H47">
+        <v>0.03700108190364993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01986804532009265</v>
+        <v>-0.01190235147315407</v>
       </c>
       <c r="C48">
-        <v>-0.006301222564583282</v>
+        <v>0.01707427339680526</v>
       </c>
       <c r="D48">
-        <v>0.01333008424910956</v>
+        <v>-0.001372945533331688</v>
       </c>
       <c r="E48">
-        <v>-0.00596009245767782</v>
+        <v>-0.004616523507665537</v>
       </c>
       <c r="F48">
-        <v>0.0292846346330945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.00659008168520494</v>
+      </c>
+      <c r="G48">
+        <v>-0.004168124144587848</v>
+      </c>
+      <c r="H48">
+        <v>-0.01653660972300523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08120013210400331</v>
+        <v>-0.05249994757627179</v>
       </c>
       <c r="C50">
-        <v>-0.01005346808617896</v>
+        <v>0.06402563174350354</v>
       </c>
       <c r="D50">
-        <v>0.03144557235646802</v>
+        <v>-0.01274394131220519</v>
       </c>
       <c r="E50">
-        <v>-0.02546756228897823</v>
+        <v>-0.01868753809849049</v>
       </c>
       <c r="F50">
-        <v>0.02337227632090479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02738549086242893</v>
+      </c>
+      <c r="G50">
+        <v>0.007114113238416299</v>
+      </c>
+      <c r="H50">
+        <v>0.02403165087790276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01737014354196071</v>
+        <v>-0.01342631501701699</v>
       </c>
       <c r="C51">
-        <v>0.003010042533465639</v>
+        <v>0.01761185207444647</v>
       </c>
       <c r="D51">
-        <v>-0.009924636941998096</v>
+        <v>0.003722460755031923</v>
       </c>
       <c r="E51">
-        <v>0.01460690980398499</v>
+        <v>-0.008426086862727989</v>
       </c>
       <c r="F51">
-        <v>0.09147128503172457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01466649041202382</v>
+      </c>
+      <c r="G51">
+        <v>-0.009962394350659534</v>
+      </c>
+      <c r="H51">
+        <v>-0.04543275266667899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08995579838553157</v>
+        <v>-0.06577674988528789</v>
       </c>
       <c r="C53">
-        <v>-0.03758601828013327</v>
+        <v>0.1026068412003121</v>
       </c>
       <c r="D53">
-        <v>0.04392848747550471</v>
+        <v>-0.01853654034479177</v>
       </c>
       <c r="E53">
-        <v>-0.06469516341502693</v>
+        <v>-0.04583372548509412</v>
       </c>
       <c r="F53">
-        <v>-0.02631081561889316</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.004319289514187158</v>
+      </c>
+      <c r="G53">
+        <v>-0.001243073876860019</v>
+      </c>
+      <c r="H53">
+        <v>0.04109825312729831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02886404428892706</v>
+        <v>-0.02201786508447837</v>
       </c>
       <c r="C54">
-        <v>0.002922774104757679</v>
+        <v>0.002738100408423063</v>
       </c>
       <c r="D54">
-        <v>-0.009486391746072152</v>
+        <v>-0.006658089273954412</v>
       </c>
       <c r="E54">
-        <v>-0.01172946255136234</v>
+        <v>0.0002211048873545695</v>
       </c>
       <c r="F54">
-        <v>0.02865997620582139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02309125735323724</v>
+      </c>
+      <c r="G54">
+        <v>-0.005875036005113604</v>
+      </c>
+      <c r="H54">
+        <v>-0.004578146563309632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07914318215644002</v>
+        <v>-0.04619789233634255</v>
       </c>
       <c r="C55">
-        <v>-0.03035894244469225</v>
+        <v>0.09135220150926308</v>
       </c>
       <c r="D55">
-        <v>0.05310018488278739</v>
+        <v>-0.01530049771492248</v>
       </c>
       <c r="E55">
-        <v>-0.0451590276688021</v>
+        <v>-0.03400777621017843</v>
       </c>
       <c r="F55">
-        <v>-0.02203467202419394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.002719035760266089</v>
+      </c>
+      <c r="G55">
+        <v>0.005236941657366594</v>
+      </c>
+      <c r="H55">
+        <v>0.04039916098774779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1283888020875788</v>
+        <v>-0.09134911045388076</v>
       </c>
       <c r="C56">
-        <v>-0.06415997273145393</v>
+        <v>0.1351464829886262</v>
       </c>
       <c r="D56">
-        <v>0.03087685281629874</v>
+        <v>-0.03000483045273858</v>
       </c>
       <c r="E56">
-        <v>-0.08699275367711541</v>
+        <v>-0.04463667698435833</v>
       </c>
       <c r="F56">
-        <v>-0.05595779391246813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.008624768034646672</v>
+      </c>
+      <c r="G56">
+        <v>-0.009402724686839527</v>
+      </c>
+      <c r="H56">
+        <v>0.08185726461030238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0334396547206867</v>
+        <v>-0.01955321247528885</v>
       </c>
       <c r="C57">
-        <v>-0.01724076716336322</v>
+        <v>0.03111804026125734</v>
       </c>
       <c r="D57">
-        <v>0.02363845659327514</v>
+        <v>0.02022482070406194</v>
       </c>
       <c r="E57">
-        <v>0.04902481142709132</v>
+        <v>0.02740575588167648</v>
       </c>
       <c r="F57">
-        <v>0.04847388399498304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02084681161483925</v>
+      </c>
+      <c r="G57">
+        <v>-0.005396395007945298</v>
+      </c>
+      <c r="H57">
+        <v>-0.06265971047358648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1446936780129627</v>
+        <v>-0.06314145021009988</v>
       </c>
       <c r="C58">
-        <v>-0.1907420913243401</v>
+        <v>0.2395442819610042</v>
       </c>
       <c r="D58">
-        <v>0.1725096124012836</v>
+        <v>-0.008571062908186588</v>
       </c>
       <c r="E58">
-        <v>0.1202360463336958</v>
+        <v>0.9168939504424822</v>
       </c>
       <c r="F58">
-        <v>0.5988365170067559</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2067553571411462</v>
+      </c>
+      <c r="G58">
+        <v>-0.13326157247045</v>
+      </c>
+      <c r="H58">
+        <v>0.1023214783851166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07461089950488067</v>
+        <v>-0.2155236085903637</v>
       </c>
       <c r="C59">
-        <v>-0.04930178659616648</v>
+        <v>-0.1544142019431942</v>
       </c>
       <c r="D59">
-        <v>-0.1755099766485538</v>
+        <v>-0.0159772191939397</v>
       </c>
       <c r="E59">
-        <v>0.06761561388348256</v>
+        <v>0.02547471922199941</v>
       </c>
       <c r="F59">
-        <v>0.05054230229693931</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.008779943705975382</v>
+      </c>
+      <c r="G59">
+        <v>-0.003635739822188981</v>
+      </c>
+      <c r="H59">
+        <v>-0.0156374478238248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1434671108223541</v>
+        <v>-0.2258956052236898</v>
       </c>
       <c r="C60">
-        <v>-0.1077751759550408</v>
+        <v>0.1062226861975915</v>
       </c>
       <c r="D60">
-        <v>0.0006311015055608641</v>
+        <v>-0.01874851736243533</v>
       </c>
       <c r="E60">
-        <v>0.03945913045170734</v>
+        <v>-0.03656871328024556</v>
       </c>
       <c r="F60">
-        <v>0.1514387802590558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.09396304498110387</v>
+      </c>
+      <c r="G60">
+        <v>-0.1227506464689109</v>
+      </c>
+      <c r="H60">
+        <v>-0.378999979133018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02178780290450515</v>
+        <v>-0.008430152350199765</v>
       </c>
       <c r="C61">
-        <v>-0.008844477321479334</v>
+        <v>0.06618216603400592</v>
       </c>
       <c r="D61">
-        <v>0.0407769099162056</v>
+        <v>-0.002758908567820781</v>
       </c>
       <c r="E61">
-        <v>-0.01306309631551672</v>
+        <v>-0.01323287720982162</v>
       </c>
       <c r="F61">
-        <v>0.0260511466487253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0009109793453586591</v>
+      </c>
+      <c r="G61">
+        <v>-0.02398678932877919</v>
+      </c>
+      <c r="H61">
+        <v>-0.05467800243193933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01557930368823056</v>
+        <v>-0.004805374009910056</v>
       </c>
       <c r="C63">
-        <v>-0.0005733862543999327</v>
+        <v>0.02100195267420534</v>
       </c>
       <c r="D63">
-        <v>0.01687219614087337</v>
+        <v>0.004894311649750768</v>
       </c>
       <c r="E63">
-        <v>-0.003562796893792714</v>
+        <v>-0.01753560584231966</v>
       </c>
       <c r="F63">
-        <v>0.005205547487362888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009215714958281994</v>
+      </c>
+      <c r="G63">
+        <v>-0.004267179042973468</v>
+      </c>
+      <c r="H63">
+        <v>-0.01418624176039619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04087130140173682</v>
+        <v>-0.03189625491539079</v>
       </c>
       <c r="C64">
-        <v>-0.004202921376101718</v>
+        <v>0.04716174218708943</v>
       </c>
       <c r="D64">
-        <v>0.02838363611321018</v>
+        <v>-0.002748885044652099</v>
       </c>
       <c r="E64">
-        <v>-0.02364743104442061</v>
+        <v>-0.02489446778116678</v>
       </c>
       <c r="F64">
-        <v>0.02718056162130448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.001811943913749512</v>
+      </c>
+      <c r="G64">
+        <v>0.001322468754276343</v>
+      </c>
+      <c r="H64">
+        <v>-0.03229931311401305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03962439088887047</v>
+        <v>-0.03706438519878851</v>
       </c>
       <c r="C65">
-        <v>-0.01215765767435174</v>
+        <v>0.08676469019347006</v>
       </c>
       <c r="D65">
-        <v>0.04177080772551665</v>
+        <v>0.005180623467605114</v>
       </c>
       <c r="E65">
-        <v>-0.03359871535970613</v>
+        <v>-0.03531033863048767</v>
       </c>
       <c r="F65">
-        <v>0.02652003144974521</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01083896621661965</v>
+      </c>
+      <c r="G65">
+        <v>-0.04266313985691403</v>
+      </c>
+      <c r="H65">
+        <v>-0.05733619513088809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03190797911545598</v>
+        <v>-0.005610373056825442</v>
       </c>
       <c r="C66">
-        <v>-0.0232946044357701</v>
+        <v>0.1180924550553348</v>
       </c>
       <c r="D66">
-        <v>0.05875540854455973</v>
+        <v>-0.002194908753747411</v>
       </c>
       <c r="E66">
-        <v>-0.05229743903180774</v>
+        <v>-0.01663671207774689</v>
       </c>
       <c r="F66">
-        <v>0.04987460813672678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01407493468870755</v>
+      </c>
+      <c r="G66">
+        <v>-0.04953756850359221</v>
+      </c>
+      <c r="H66">
+        <v>-0.07714457027771848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02526158232048662</v>
+        <v>-0.04840398386047759</v>
       </c>
       <c r="C67">
-        <v>-0.01670192747296774</v>
+        <v>0.03246207340760073</v>
       </c>
       <c r="D67">
-        <v>-0.008391573811505572</v>
+        <v>-0.01365263424236855</v>
       </c>
       <c r="E67">
-        <v>0.01890692520167178</v>
+        <v>-0.01432222497831402</v>
       </c>
       <c r="F67">
-        <v>0.02612133719476729</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.003170293764316925</v>
+      </c>
+      <c r="G67">
+        <v>-0.01780169801792661</v>
+      </c>
+      <c r="H67">
+        <v>-0.02893606610132965</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08220111086262992</v>
+        <v>-0.2170647806189921</v>
       </c>
       <c r="C68">
-        <v>-0.0390398401926608</v>
+        <v>-0.1947578017962011</v>
       </c>
       <c r="D68">
-        <v>-0.2022110330312211</v>
+        <v>0.006164243373664928</v>
       </c>
       <c r="E68">
-        <v>0.09192544160868883</v>
+        <v>0.03868816532665537</v>
       </c>
       <c r="F68">
-        <v>0.03053378984299262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02506206826725265</v>
+      </c>
+      <c r="G68">
+        <v>0.04187021640825613</v>
+      </c>
+      <c r="H68">
+        <v>0.02925417244476674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05983717417252168</v>
+        <v>-0.05116156301671222</v>
       </c>
       <c r="C69">
-        <v>-0.02890718188737684</v>
+        <v>0.06446981971664351</v>
       </c>
       <c r="D69">
-        <v>0.01526044344548101</v>
+        <v>-0.01894843621494733</v>
       </c>
       <c r="E69">
-        <v>-0.03939815029129667</v>
+        <v>-0.02993100856630998</v>
       </c>
       <c r="F69">
-        <v>0.01541171228796202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001104935824347476</v>
+      </c>
+      <c r="G69">
+        <v>-0.01497654711151851</v>
+      </c>
+      <c r="H69">
+        <v>0.007925976967644655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08546822538721506</v>
+        <v>-0.1917502778862678</v>
       </c>
       <c r="C71">
-        <v>-0.04702331640614897</v>
+        <v>-0.1514150281298601</v>
       </c>
       <c r="D71">
-        <v>-0.1940192301228583</v>
+        <v>-0.002599312110548784</v>
       </c>
       <c r="E71">
-        <v>0.1256900152279445</v>
+        <v>0.04275564879352203</v>
       </c>
       <c r="F71">
-        <v>0.02958344125642022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02271551487027258</v>
+      </c>
+      <c r="G71">
+        <v>0.04453030080365866</v>
+      </c>
+      <c r="H71">
+        <v>0.006823784221524105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09397032453005016</v>
+        <v>-0.04900437988282284</v>
       </c>
       <c r="C72">
-        <v>-0.05602622530420014</v>
+        <v>0.1032927724018075</v>
       </c>
       <c r="D72">
-        <v>0.07362689525553828</v>
+        <v>-0.02284662313487524</v>
       </c>
       <c r="E72">
-        <v>-0.08500211597204861</v>
+        <v>-0.04206294377628001</v>
       </c>
       <c r="F72">
-        <v>0.1354016011319197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02434065271065763</v>
+      </c>
+      <c r="G72">
+        <v>-0.06629903875817673</v>
+      </c>
+      <c r="H72">
+        <v>-0.08344220116013469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1704791865728024</v>
+        <v>-0.2922760478148086</v>
       </c>
       <c r="C73">
-        <v>-0.1776825129307548</v>
+        <v>0.1609232226372762</v>
       </c>
       <c r="D73">
-        <v>0.01967560390350125</v>
+        <v>-0.02123080045916898</v>
       </c>
       <c r="E73">
-        <v>0.07551179002694654</v>
+        <v>-0.02623682165322998</v>
       </c>
       <c r="F73">
-        <v>0.167866124851165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1479136736615857</v>
+      </c>
+      <c r="G73">
+        <v>-0.1290622707075823</v>
+      </c>
+      <c r="H73">
+        <v>-0.4726661078366184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1158835063945549</v>
+        <v>-0.0884719970889804</v>
       </c>
       <c r="C74">
-        <v>-0.05764035418494873</v>
+        <v>0.1384175823673247</v>
       </c>
       <c r="D74">
-        <v>0.03918397305360054</v>
+        <v>-0.0302682559522456</v>
       </c>
       <c r="E74">
-        <v>-0.07445055246842601</v>
+        <v>-0.04926556356140216</v>
       </c>
       <c r="F74">
-        <v>-0.05648198787534793</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.004993372815914262</v>
+      </c>
+      <c r="G74">
+        <v>-0.006796236807882661</v>
+      </c>
+      <c r="H74">
+        <v>0.056302385376841</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2077183411211358</v>
+        <v>-0.1902022258711889</v>
       </c>
       <c r="C75">
-        <v>-0.1214724891682704</v>
+        <v>0.2327447640636237</v>
       </c>
       <c r="D75">
-        <v>0.04356135388211398</v>
+        <v>-0.06053116943211753</v>
       </c>
       <c r="E75">
-        <v>-0.1966915789016054</v>
+        <v>-0.07643236594574788</v>
       </c>
       <c r="F75">
-        <v>-0.07498056705680854</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03100049867270659</v>
+      </c>
+      <c r="G75">
+        <v>-0.03734258297496591</v>
+      </c>
+      <c r="H75">
+        <v>0.1834323501424872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2529340431439991</v>
+        <v>-0.1344022226671846</v>
       </c>
       <c r="C76">
-        <v>-0.1020453135895508</v>
+        <v>0.1997598417408089</v>
       </c>
       <c r="D76">
-        <v>0.04377112120720379</v>
+        <v>-0.05152791719723487</v>
       </c>
       <c r="E76">
-        <v>-0.2350747132542391</v>
+        <v>-0.09905616245899636</v>
       </c>
       <c r="F76">
-        <v>-0.1568456986066039</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.009225386101844982</v>
+      </c>
+      <c r="G76">
+        <v>-0.01811312900093297</v>
+      </c>
+      <c r="H76">
+        <v>0.1508332569154455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09135196800332951</v>
+        <v>-0.03990117574694797</v>
       </c>
       <c r="C77">
-        <v>-0.05851606754699192</v>
+        <v>0.09129975075745048</v>
       </c>
       <c r="D77">
-        <v>0.08018201174254251</v>
+        <v>0.002443276110116566</v>
       </c>
       <c r="E77">
-        <v>0.04911347023095622</v>
+        <v>0.02389907498334943</v>
       </c>
       <c r="F77">
-        <v>0.09193161705180319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01395312621236534</v>
+      </c>
+      <c r="G77">
+        <v>0.01624914702746861</v>
+      </c>
+      <c r="H77">
+        <v>-0.01383092625208047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04904472699865561</v>
+        <v>-0.01772702165671631</v>
       </c>
       <c r="C78">
-        <v>-0.009633738038017127</v>
+        <v>0.07608178540097507</v>
       </c>
       <c r="D78">
-        <v>0.09080172456501236</v>
+        <v>-0.002021645675166813</v>
       </c>
       <c r="E78">
-        <v>-0.02749952069029753</v>
+        <v>0.0002406769811474215</v>
       </c>
       <c r="F78">
-        <v>0.1008189579217883</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01574000303420794</v>
+      </c>
+      <c r="G78">
+        <v>-0.0264962279116988</v>
+      </c>
+      <c r="H78">
+        <v>-0.08251963275541802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.549363906662657</v>
+        <v>-0.08957835577100358</v>
       </c>
       <c r="C80">
-        <v>0.8103176972319716</v>
+        <v>0.1225305636164427</v>
       </c>
       <c r="D80">
-        <v>0.03961413973390891</v>
+        <v>-0.01173722868465158</v>
       </c>
       <c r="E80">
-        <v>0.1024089793120391</v>
+        <v>-0.2096098135516617</v>
       </c>
       <c r="F80">
-        <v>0.02771331050309094</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9050395335026526</v>
+      </c>
+      <c r="G80">
+        <v>0.2289645368951352</v>
+      </c>
+      <c r="H80">
+        <v>-0.1173610779329258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1629648888803202</v>
+        <v>-0.1171094997564309</v>
       </c>
       <c r="C81">
-        <v>-0.07986734035240615</v>
+        <v>0.1498377239876706</v>
       </c>
       <c r="D81">
-        <v>0.02332756154978685</v>
+        <v>-0.03719447161534054</v>
       </c>
       <c r="E81">
-        <v>-0.1525149830926611</v>
+        <v>-0.05279783651854567</v>
       </c>
       <c r="F81">
-        <v>-0.05799141468495615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-8.461849576852237e-05</v>
+      </c>
+      <c r="G81">
+        <v>-0.01916385552511478</v>
+      </c>
+      <c r="H81">
+        <v>0.1118572814986594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002147438567948967</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0009404960545608276</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0004618164823461465</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01180003385763349</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003707021163990205</v>
+      </c>
+      <c r="G82">
+        <v>8.870292451230268e-05</v>
+      </c>
+      <c r="H82">
+        <v>-0.002152985965455205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03289611136265867</v>
+        <v>-0.02133344546508539</v>
       </c>
       <c r="C83">
-        <v>-0.02273269428591197</v>
+        <v>0.02250804245269081</v>
       </c>
       <c r="D83">
-        <v>0.02138375877092528</v>
+        <v>0.001507913617932437</v>
       </c>
       <c r="E83">
-        <v>0.03217973353247594</v>
+        <v>0.01574540689390842</v>
       </c>
       <c r="F83">
-        <v>0.04542608691745227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.00780603649515193</v>
+      </c>
+      <c r="G83">
+        <v>-0.001263385774441125</v>
+      </c>
+      <c r="H83">
+        <v>-0.04169861591479515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2258174913056809</v>
+        <v>-0.1715551420495695</v>
       </c>
       <c r="C85">
-        <v>-0.1257025111707069</v>
+        <v>0.2214271406644222</v>
       </c>
       <c r="D85">
-        <v>0.0495172597960644</v>
+        <v>-0.04504967125723349</v>
       </c>
       <c r="E85">
-        <v>-0.2078068887762914</v>
+        <v>-0.0994689637736139</v>
       </c>
       <c r="F85">
-        <v>-0.1095674102087003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.05293026226564933</v>
+      </c>
+      <c r="G85">
+        <v>-0.02703297196618709</v>
+      </c>
+      <c r="H85">
+        <v>0.1253209660357891</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0002291823200813847</v>
+        <v>-0.006285766129845013</v>
       </c>
       <c r="C86">
-        <v>0.003195998698823566</v>
+        <v>0.03839323069700934</v>
       </c>
       <c r="D86">
-        <v>0.04758743803057586</v>
+        <v>0.003900526432138825</v>
       </c>
       <c r="E86">
-        <v>-0.007199748310194456</v>
+        <v>0.002852288469627564</v>
       </c>
       <c r="F86">
-        <v>0.08735513970000457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.009959143317772081</v>
+      </c>
+      <c r="G86">
+        <v>-0.003033785055923173</v>
+      </c>
+      <c r="H86">
+        <v>-0.0669933412675016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0259608143839924</v>
+        <v>-0.0002065014682485796</v>
       </c>
       <c r="C87">
-        <v>-0.0075114057744232</v>
+        <v>0.04207344182462886</v>
       </c>
       <c r="D87">
-        <v>0.03584843443628595</v>
+        <v>0.005796530263235479</v>
       </c>
       <c r="E87">
-        <v>0.004635075944082131</v>
+        <v>0.03686054306985693</v>
       </c>
       <c r="F87">
-        <v>0.1000138113631544</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02757399786523867</v>
+      </c>
+      <c r="G87">
+        <v>-0.01914439482525249</v>
+      </c>
+      <c r="H87">
+        <v>-0.07993527824790217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03314925846225313</v>
+        <v>-0.0428550627685344</v>
       </c>
       <c r="C88">
-        <v>-0.006925952874127402</v>
+        <v>0.03001030614821893</v>
       </c>
       <c r="D88">
-        <v>-0.004272828618270837</v>
+        <v>0.0147905817985886</v>
       </c>
       <c r="E88">
-        <v>-0.01380859561368757</v>
+        <v>-0.01167360185510194</v>
       </c>
       <c r="F88">
-        <v>-0.003505215684863998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0154714280178069</v>
+      </c>
+      <c r="G88">
+        <v>-0.01316310001828382</v>
+      </c>
+      <c r="H88">
+        <v>0.006510112151389418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1392500125095078</v>
+        <v>-0.3378993293099734</v>
       </c>
       <c r="C89">
-        <v>-0.103699226647549</v>
+        <v>-0.2707905812996755</v>
       </c>
       <c r="D89">
-        <v>-0.3511207725523866</v>
+        <v>-0.003728712373444728</v>
       </c>
       <c r="E89">
-        <v>0.1118096444084588</v>
+        <v>0.03127124119772824</v>
       </c>
       <c r="F89">
-        <v>0.04945265247661559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.00524306475881694</v>
+      </c>
+      <c r="G89">
+        <v>0.02291751613799135</v>
+      </c>
+      <c r="H89">
+        <v>0.0255867754060475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.109740926960403</v>
+        <v>-0.2819647009698328</v>
       </c>
       <c r="C90">
-        <v>-0.05218677856911304</v>
+        <v>-0.2481639112595383</v>
       </c>
       <c r="D90">
-        <v>-0.3284761777196375</v>
+        <v>-0.004271317687976251</v>
       </c>
       <c r="E90">
-        <v>0.1146443168988029</v>
+        <v>0.03934953498247466</v>
       </c>
       <c r="F90">
-        <v>-0.01934619245134885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.0234965120658395</v>
+      </c>
+      <c r="G90">
+        <v>0.04788555405002815</v>
+      </c>
+      <c r="H90">
+        <v>0.05837932098651406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2512798665018818</v>
+        <v>-0.1780169748658085</v>
       </c>
       <c r="C91">
-        <v>-0.1534198259556862</v>
+        <v>0.2055635991349097</v>
       </c>
       <c r="D91">
-        <v>0.0638370507189891</v>
+        <v>-0.0550446306294235</v>
       </c>
       <c r="E91">
-        <v>-0.189877324308965</v>
+        <v>-0.08749893194094992</v>
       </c>
       <c r="F91">
-        <v>-0.2019617159854683</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.04096615932124053</v>
+      </c>
+      <c r="G91">
+        <v>-0.002528249653690993</v>
+      </c>
+      <c r="H91">
+        <v>0.1856693423005726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1684089410951314</v>
+        <v>-0.2867066411239041</v>
       </c>
       <c r="C92">
-        <v>-0.09773164180572448</v>
+        <v>-0.1747922373270326</v>
       </c>
       <c r="D92">
-        <v>-0.4007429559987802</v>
+        <v>-0.05244702716231396</v>
       </c>
       <c r="E92">
-        <v>0.02392980864264795</v>
+        <v>0.04296552778530605</v>
       </c>
       <c r="F92">
-        <v>-0.1177904653046202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.03927375554184571</v>
+      </c>
+      <c r="G92">
+        <v>0.02060972374010811</v>
+      </c>
+      <c r="H92">
+        <v>0.1453868535614544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1203708730825507</v>
+        <v>-0.3157000521600192</v>
       </c>
       <c r="C93">
-        <v>-0.1087840920116896</v>
+        <v>-0.2365454242997228</v>
       </c>
       <c r="D93">
-        <v>-0.3734607779252009</v>
+        <v>-0.01428822807070433</v>
       </c>
       <c r="E93">
-        <v>0.1778110594470547</v>
+        <v>0.05584003156262952</v>
       </c>
       <c r="F93">
-        <v>-0.02270959900854995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01462507218528073</v>
+      </c>
+      <c r="G93">
+        <v>0.04290891765571458</v>
+      </c>
+      <c r="H93">
+        <v>-0.000767717550526534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2669296026455072</v>
+        <v>-0.2133315411388323</v>
       </c>
       <c r="C94">
-        <v>-0.1837859876148374</v>
+        <v>0.2430453312595313</v>
       </c>
       <c r="D94">
-        <v>0.01324596286790391</v>
+        <v>-0.04708510156708783</v>
       </c>
       <c r="E94">
-        <v>-0.272863597984914</v>
+        <v>-0.116287014331635</v>
       </c>
       <c r="F94">
-        <v>-0.07828283492571379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.08067909203859555</v>
+      </c>
+      <c r="G94">
+        <v>-0.08852746679743606</v>
+      </c>
+      <c r="H94">
+        <v>0.4650205219447907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0293892687552211</v>
+        <v>-0.02987442822118659</v>
       </c>
       <c r="C95">
-        <v>-0.1071054292010168</v>
+        <v>0.1061272039172611</v>
       </c>
       <c r="D95">
-        <v>0.03909514516012577</v>
+        <v>-0.01813179517906432</v>
       </c>
       <c r="E95">
-        <v>-0.02322063426319593</v>
+        <v>0.04391682254119557</v>
       </c>
       <c r="F95">
-        <v>0.03002514771713718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07783469549786103</v>
+      </c>
+      <c r="G95">
+        <v>-0.01811999759204732</v>
+      </c>
+      <c r="H95">
+        <v>-0.05912653657019794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1444992239520999</v>
+        <v>-0.1838944265065052</v>
       </c>
       <c r="C98">
-        <v>-0.1215015495021612</v>
+        <v>0.07951957421320119</v>
       </c>
       <c r="D98">
-        <v>-0.01132942797748044</v>
+        <v>-0.03856170598100153</v>
       </c>
       <c r="E98">
-        <v>0.09936864776841414</v>
+        <v>0.02398261265747633</v>
       </c>
       <c r="F98">
-        <v>0.1436528903240554</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.0664418419919737</v>
+      </c>
+      <c r="G98">
+        <v>-0.04577836683754533</v>
+      </c>
+      <c r="H98">
+        <v>-0.324771864224463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01130511398429944</v>
+        <v>-0.004581723528158979</v>
       </c>
       <c r="C101">
-        <v>0.005386317399978124</v>
+        <v>0.02163856681089206</v>
       </c>
       <c r="D101">
-        <v>0.03024524804167904</v>
+        <v>0.004476279039646406</v>
       </c>
       <c r="E101">
-        <v>0.002348325497076719</v>
+        <v>0.03014579319703331</v>
       </c>
       <c r="F101">
-        <v>0.1868141971275943</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03519858205262396</v>
+      </c>
+      <c r="G101">
+        <v>-0.02710926825945441</v>
+      </c>
+      <c r="H101">
+        <v>-0.008116122908191756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1132668697207016</v>
+        <v>-0.08980774383568464</v>
       </c>
       <c r="C102">
-        <v>-0.0620734724714668</v>
+        <v>0.1089417890061679</v>
       </c>
       <c r="D102">
-        <v>0.02449403303467646</v>
+        <v>-0.01569575073656635</v>
       </c>
       <c r="E102">
-        <v>-0.1027618937441803</v>
+        <v>-0.05467155890345698</v>
       </c>
       <c r="F102">
-        <v>-0.07073216027221242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.02416790601092039</v>
+      </c>
+      <c r="G102">
+        <v>-0.01649064953793837</v>
+      </c>
+      <c r="H102">
+        <v>0.06816106232696333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04081349901377298</v>
+        <v>-0.0095120717302073</v>
       </c>
       <c r="C103">
-        <v>-0.004666535440348524</v>
+        <v>0.01525200305359193</v>
       </c>
       <c r="D103">
-        <v>0.01427402262069618</v>
+        <v>-0.002433832030342017</v>
       </c>
       <c r="E103">
-        <v>-0.040497002091921</v>
+        <v>-0.00517834644533401</v>
       </c>
       <c r="F103">
-        <v>0.006991061819328135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01511278581034307</v>
+      </c>
+      <c r="G103">
+        <v>-0.001713189200041772</v>
+      </c>
+      <c r="H103">
+        <v>0.01041072249987524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1037038109760372</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04748864054366263</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9796148132606077</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0400499451339552</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01951725626139959</v>
+      </c>
+      <c r="G104">
+        <v>-0.1104711228842528</v>
+      </c>
+      <c r="H104">
+        <v>0.05955881954821807</v>
       </c>
     </row>
   </sheetData>
